--- a/智库开发.xlsx
+++ b/智库开发.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MTools\ZY-ZKWeb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\ZY-ZKWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC46994-2DB6-4349-8D66-4B1F6A78EA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5B9B0C-764A-4FF3-9827-A85F7B58C4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22572" yWindow="528" windowWidth="21600" windowHeight="11388" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="1095" windowWidth="25320" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APP 端" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="184">
   <si>
     <t>启动页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -925,6 +925,15 @@
   <si>
     <t>需要默认一个超级管理员么，
 可以对管理员进行操作？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频发布功能APP端也需要有么，还是说在web端进行统一
+内容管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1330,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1589,6 +1598,9 @@
       <c r="D22" s="3" t="s">
         <v>138</v>
       </c>
+      <c r="E22" s="8" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
@@ -1599,6 +1611,9 @@
       </c>
       <c r="D23" s="3" t="s">
         <v>139</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -1688,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5A53E1-A30C-41AC-A38A-AD5A1BF4C2FD}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/智库开发.xlsx
+++ b/智库开发.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\ZY-ZKWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5B9B0C-764A-4FF3-9827-A85F7B58C4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2A4B09-4175-4173-97B4-3D0B9D289967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="1095" windowWidth="25320" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="1095" windowWidth="25320" windowHeight="14505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APP 端" sheetId="1" r:id="rId1"/>
@@ -694,10 +694,6 @@
   </si>
   <si>
     <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据源哪里来？需要自己去爬虫获取么</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -934,6 +930,13 @@
   </si>
   <si>
     <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.数据源哪里来？需要自己去爬虫获取么
+2.数据资源这块儿是要单独建立一个平台么？
+3.如果需要获取的话，需要定期进行更新么
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1024,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1053,6 +1056,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1339,7 +1345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -1444,27 +1450,27 @@
         <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>130</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>131</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -1520,7 +1526,7 @@
         <v>145</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -1599,7 +1605,7 @@
         <v>138</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -1607,13 +1613,13 @@
         <v>40</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>139</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -1654,7 +1660,7 @@
         <v>142</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1665,10 +1671,10 @@
         <v>49</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1743,10 +1749,10 @@
         <v>56</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
@@ -1757,7 +1763,7 @@
         <v>58</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1773,7 +1779,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1784,7 +1790,7 @@
         <v>63</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1800,7 +1806,7 @@
         <v>66</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1811,7 +1817,7 @@
         <v>72</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1822,10 +1828,10 @@
         <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1836,7 +1842,7 @@
         <v>71</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1852,7 +1858,7 @@
         <v>75</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1863,7 +1869,7 @@
         <v>77</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -1874,7 +1880,7 @@
         <v>79</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
@@ -1885,7 +1891,7 @@
         <v>81</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
@@ -1896,7 +1902,7 @@
         <v>83</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
@@ -1907,7 +1913,7 @@
         <v>85</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
@@ -1918,7 +1924,7 @@
         <v>87</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1934,7 +1940,7 @@
         <v>90</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -1945,7 +1951,7 @@
         <v>92</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -1956,7 +1962,7 @@
         <v>94</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -1967,7 +1973,7 @@
         <v>96</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1983,7 +1989,7 @@
         <v>99</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -1994,7 +2000,7 @@
         <v>101</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -2005,7 +2011,7 @@
         <v>103</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2016,7 +2022,7 @@
         <v>105</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2050,8 +2056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B64C43-9A09-4A5F-9284-81154C927692}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2069,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2079,7 +2085,7 @@
       <c r="B2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2088,7 +2094,7 @@
       <c r="B3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2097,7 +2103,7 @@
       <c r="B4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -2106,7 +2112,7 @@
       <c r="B5" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
